--- a/Doc/Design/DBDesign.xlsx
+++ b/Doc/Design/DBDesign.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18103" windowHeight="8509"/>
   </bookViews>
   <sheets>
-    <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -62,6 +62,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4472C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -71,6 +76,1878 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>11875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Hình chữ nhật 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="237506" y="932213"/>
+          <a:ext cx="14487897" cy="5153891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472C4">
+            <a:alpha val="89804"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Hình chữ nhật 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="237506" y="184068"/>
+          <a:ext cx="3800104" cy="368135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Tổng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> quan về hệ thống Database</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>237506</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Nhóm 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="475012" y="1104405"/>
+          <a:ext cx="3800105" cy="2945081"/>
+          <a:chOff x="475012" y="1104405"/>
+          <a:chExt cx="3800105" cy="2945081"/>
+        </a:xfrm>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Hình chữ nhật 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="475012" y="1104405"/>
+            <a:ext cx="3800105" cy="2945081"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>MongoDB</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Hình chữ nhật 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="712519" y="1472540"/>
+            <a:ext cx="950025" cy="1104405"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>JAENWord</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Hình chữ nhật 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1929740" y="1472540"/>
+            <a:ext cx="950027" cy="1104405"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>ENVNWord</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Hình chữ nhật 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3087584" y="1472540"/>
+            <a:ext cx="950026" cy="1104405"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>JAVNWord</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Hình chữ nhật 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="475013" y="3681351"/>
+            <a:ext cx="3800104" cy="368135"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Stor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>e the dictionary</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Hình chữ nhật 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="475013" y="2945081"/>
+            <a:ext cx="3800104" cy="368135"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>And more...</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="Nhóm 53"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9975273" y="1104405"/>
+          <a:ext cx="4275117" cy="3865418"/>
+          <a:chOff x="4750130" y="1104405"/>
+          <a:chExt cx="4275117" cy="3865418"/>
+        </a:xfrm>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Hình chữ nhật 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4750130" y="1104405"/>
+            <a:ext cx="4275117" cy="3865418"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Neo4j</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Hình chữ nhật 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4750130" y="4601688"/>
+            <a:ext cx="4275117" cy="368135"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Store the relation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> between word, phrase...</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="Nhóm 19"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4987636" y="1472540"/>
+            <a:ext cx="3800104" cy="368135"/>
+            <a:chOff x="4987636" y="1472540"/>
+            <a:chExt cx="3800104" cy="368135"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="Hình chữ nhật 12"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6412675" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>SimilarTo</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="Hình chữ nhật 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4987636" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>WordA</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Hình chữ nhật 14"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7837714" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>WordB</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>PhraseB</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="17" name="Đường kết nối Mũi tên Thẳng 16"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="14" idx="3"/>
+              <a:endCxn id="13" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5937662" y="1656608"/>
+              <a:ext cx="475013" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="19" name="Đường kết nối Mũi tên Thẳng 18"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="13" idx="3"/>
+              <a:endCxn id="15" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7362701" y="1656608"/>
+              <a:ext cx="475013" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="Nhóm 34"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4987636" y="2024743"/>
+            <a:ext cx="3800104" cy="368135"/>
+            <a:chOff x="4987636" y="1472540"/>
+            <a:chExt cx="3800104" cy="368135"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="Hình chữ nhật 35"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6412675" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>RelatedTo</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="Hình chữ nhật 36"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4987636" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>WordA</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="Hình chữ nhật 37"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7837714" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>WordB</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>PhraseB</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="39" name="Đường kết nối Mũi tên Thẳng 38"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="37" idx="3"/>
+              <a:endCxn id="36" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5937662" y="1656608"/>
+              <a:ext cx="475013" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="40" name="Đường kết nối Mũi tên Thẳng 39"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="36" idx="3"/>
+              <a:endCxn id="38" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7362701" y="1656608"/>
+              <a:ext cx="475013" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="41" name="Nhóm 40"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4987636" y="2576945"/>
+            <a:ext cx="3800104" cy="368135"/>
+            <a:chOff x="4987636" y="1472540"/>
+            <a:chExt cx="3800104" cy="368135"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="Hình chữ nhật 41"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6412675" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>TranslatedTo</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="Hình chữ nhật 42"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4987636" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>WordA</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="Hình chữ nhật 43"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7837714" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>WordB</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>PhraseB</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="45" name="Đường kết nối Mũi tên Thẳng 44"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="43" idx="3"/>
+              <a:endCxn id="42" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5937662" y="1656608"/>
+              <a:ext cx="475013" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="46" name="Đường kết nối Mũi tên Thẳng 45"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="42" idx="3"/>
+              <a:endCxn id="44" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7362701" y="1656608"/>
+              <a:ext cx="475013" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="47" name="Nhóm 46"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4987636" y="3129148"/>
+            <a:ext cx="3800104" cy="368135"/>
+            <a:chOff x="4987636" y="1472540"/>
+            <a:chExt cx="3800104" cy="368135"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="Hình chữ nhật 47"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6412675" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>OppositeTo</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="Hình chữ nhật 48"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4987636" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>WordA</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="Hình chữ nhật 49"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7837714" y="1472540"/>
+              <a:ext cx="950026" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>WordB</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>PhraseB</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="51" name="Đường kết nối Mũi tên Thẳng 50"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="49" idx="3"/>
+              <a:endCxn id="48" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5937662" y="1656608"/>
+              <a:ext cx="475013" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="52" name="Đường kết nối Mũi tên Thẳng 51"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="48" idx="3"/>
+              <a:endCxn id="50" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7362701" y="1656608"/>
+              <a:ext cx="475013" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="Hình chữ nhật 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4750130" y="3865418"/>
+            <a:ext cx="4275117" cy="391885"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>And more...</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="60" name="Nhóm 59"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="475013" y="4049486"/>
+          <a:ext cx="3800104" cy="1840675"/>
+          <a:chOff x="475013" y="4049486"/>
+          <a:chExt cx="3800104" cy="1840675"/>
+        </a:xfrm>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="58" name="Nhóm 57"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="475013" y="4049486"/>
+            <a:ext cx="3800104" cy="1840675"/>
+            <a:chOff x="534390" y="4049486"/>
+            <a:chExt cx="3740727" cy="1858487"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="Hình chữ nhật 54"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="534390" y="4969822"/>
+              <a:ext cx="3740727" cy="938151"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600"/>
+                <a:t>Elasticsearch</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="Mũi tên Lên-Xuống 55"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2137558" y="4049486"/>
+              <a:ext cx="475013" cy="920337"/>
+            </a:xfrm>
+            <a:prstGeom prst="upDownArrow">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 47500"/>
+                <a:gd name="adj2" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="Hình chữ nhật 56"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2517568" y="4322618"/>
+              <a:ext cx="1282535" cy="368135"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Mongo connector</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="Hình chữ nhật 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="475013" y="5522026"/>
+            <a:ext cx="3800104" cy="368135"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>For</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> fast query string</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>237506</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Hình chữ nhật 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5225142" y="1288473"/>
+          <a:ext cx="3800105" cy="4417621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Backend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> server</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Hình chữ nhật 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5225143" y="5337959"/>
+          <a:ext cx="3800104" cy="368135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Word &amp; Sentence REST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> API</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,10 +2215,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BK19" sqref="BK19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/Design/DBDesign.xlsx
+++ b/Doc/Design/DBDesign.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18103" windowHeight="8509"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18103" windowHeight="8509" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Database" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -64,6 +65,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA5A5A5"/>
       <color rgb="FF4472C4"/>
     </mruColors>
   </colors>
@@ -107,9 +109,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="4472C4">
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
             <a:alpha val="89804"/>
-          </a:srgbClr>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -193,7 +196,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t> quan về hệ thống Database</a:t>
+            <a:t> quan về hệ thống</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="1"/>
         </a:p>
@@ -1947,6 +1950,980 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Hình chữ nhật 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5225144" y="1710047"/>
+          <a:ext cx="3800104" cy="3259776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Chức</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> năng chính: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Kết nối với mongodb để lấy thông tin của từ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Kết nối với neo4j để lấy thông tin quan hệ: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>   - Gần nghĩa với</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>   - Có liên quan với</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>   - Có thể transalte sang ngôn ngữ khác</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>   - Trái nghĩa với </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Query vào server elastic để tìm kiếm từ mà không có trong neo4j. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Giao diện: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  - Cung cấp API để làm việc cho cả User GUI và Administrator GUI. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17813</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>148442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>17813</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>148442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Hình chữ nhật 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="255319" y="7143008"/>
+          <a:ext cx="14487897" cy="3313216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+            <a:alpha val="89804"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>178130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>237506</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>178130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Hình chữ nhật 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="712519" y="7540831"/>
+          <a:ext cx="4037610" cy="2392878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Tool</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>178130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>237506</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>178130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Hình chữ nhật 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5462649" y="7540831"/>
+          <a:ext cx="4037610" cy="2392878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Enduser frontend</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>178130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>237506</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>178130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Hình chữ nhật 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10212779" y="7540831"/>
+          <a:ext cx="4037610" cy="2392878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Adminstrator Frontend</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Hình chữ nhật 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="712519" y="7914904"/>
+          <a:ext cx="4037611" cy="1840675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ImportDict (Deprecated):</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  - Nhập data JAEN vào Neo4j </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JsonToObject: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  - Nhập data xử lý được từ raw data của stardict sang jsonObject</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GoogleTranslate: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  - Tra những từ còn thiếu từ google translate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>En2VnJSon</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   -Chuyển data từ EN sang VI sang JSON</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Hình chữ nhật 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5462649" y="7914904"/>
+          <a:ext cx="4037611" cy="1840675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Giao diện</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> của người dùng sau khi truy cập vào trang www.imitori.net</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Chức năng: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   - Tra từ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        - Nghĩa của từ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        - Từ đồng nghĩa, trái nghĩa, các từ liên quan</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   - Hiển thị từ/ngữ pháp ngẫu nhiên tùy theo level của người xem (có thể điều chỉnh)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .... </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Hình chữ nhật 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10212779" y="7914904"/>
+          <a:ext cx="4037611" cy="1840675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Xử</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> lý độ chính xác của từ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Quản lý truy cập, xử lý robot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Quản lý google adsen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Import/export database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tu sửa database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>....</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Hình chữ nhật 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="195943" y="184068"/>
+          <a:ext cx="7837713" cy="3129148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>JAENWord</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2215,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BK19" sqref="BK19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AD61" sqref="AD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2224,4 +3201,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>